--- a/biology/Zoologie/Calliostoma/Calliostoma.xlsx
+++ b/biology/Zoologie/Calliostoma/Calliostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Troque, Calliostome
 Calliostoma est un genre d'escargots marins dont la coquille, de taille petite à moyenne est operculée. Ils sont appelés troques ou calliostomes en français, calliostoma top snails en anglais. Ces mollusques gastéropodes appartiennent à la famille des Calliostomatidae, selon la Taxonomie des Gastropoda (Bouchet &amp; Rocroi, 2005)).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre provient du grec κάλλος (kállos, beau) et στόμα (stóma, bouche), en raison de l'ouverture nacrée des coquilles.
 </t>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre était autrefois classé dans la famille des Trochidae (et certains sont encore communément appelés troches). Actuellement  Calliostoma  est traité dans Registre mondial des espèces marines WoRMS comme un genre vaste et unique, mais il sera probablement bientôt subdivisé en sous-genres et certains de ces sous-genres pourraient être élevés au niveau de genres. En 2013 les informations sur ce genre étaient cependant encore trop fragmentaires pour permettre une révision générale du genre.
 Calliostoma est le genre-type de la famille des Calliostomatidae.
@@ -575,9 +591,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de Calliostoma ont été identifiées parmi les coquilles fossiles de mollusques du Crétacé supérieur[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de Calliostoma ont été identifiées parmi les coquilles fossiles de mollusques du Crétacé supérieur
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre comprend des représentants dans tous les océans du monde, principalement trouvés sur des substrats durs même si quelques espèces japonaises vivent aussi sur des substrats sableux. Des espèces appartenant à ce genre sont retrouvées dans des zones peu profondes du plateau continental aux grands fonds marins.
 Ce gastéropode Troque est fréquent sur les côtes rocheuses et les récifs.
@@ -638,14 +658,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille de ce gastéropode peut atteindre 3 cm de haut[4]. Elle est plutôt mince, vivement colorée, de forme aiguë, coéloconoïde (de forme presque conique, mais avec des côtés concaves), perforée ou plus rarement ombiliqué. 
-Les spires sont lisses, souvent polies et striées en spirale ou granulaires[5]. 
-La base de la coquille est anguleuse en périphérie[5]. 
-L'ouverture de la coquille est quadrangulaire, sinueuse à la base et légèrement oblique[5]. 
-La Columelle est simple, et se termine souvent avec une légère dent vers l'avant[5];
-Le noyau de la coquille semble être indifféremment dextre ou senestre[6],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille de ce gastéropode peut atteindre 3 cm de haut. Elle est plutôt mince, vivement colorée, de forme aiguë, coéloconoïde (de forme presque conique, mais avec des côtés concaves), perforée ou plus rarement ombiliqué. 
+Les spires sont lisses, souvent polies et striées en spirale ou granulaires. 
+La base de la coquille est anguleuse en périphérie. 
+L'ouverture de la coquille est quadrangulaire, sinueuse à la base et légèrement oblique. 
+La Columelle est simple, et se termine souvent avec une légère dent vers l'avant;
+Le noyau de la coquille semble être indifféremment dextre ou senestre,.
 			Calliostoma diadematum
 			Calliostoma formosense
 			Calliostoma zizyphinum f. conuloides
@@ -677,9 +699,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Calliostomes semblent principalement herbivores et/ou détritivores[8] mais quelques espèces sont omnivores (Keen, 1975) voire carnivores, se nourrissant de diverses espèces d'algues et de nombreuses espèces d'invertébrés[9] ; ainsi en Atlantique nord Calliostoma occidentale se nourrit parfois de cœlentérés[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Calliostomes semblent principalement herbivores et/ou détritivores mais quelques espèces sont omnivores (Keen, 1975) voire carnivores, se nourrissant de diverses espèces d'algues et de nombreuses espèces d'invertébrés ; ainsi en Atlantique nord Calliostoma occidentale se nourrit parfois de cœlentérés.
 Contrairement à ce qui est observé chez la plupart des escargots de ce groupe, les espèces de Calliostoma déposent leurs œufs en rubans gélatineux qui ne sont fécondés qu'après avoir été déposés sur le substrat de ponte. Les jeunes émergeront de l'œuf avec la forme de l'adulte, mais en miniature (Lebour, 1936), sans passer par une phase de vie planctonique.
 </t>
         </is>
@@ -709,9 +733,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Calliostoma comprenaient en 2011[11] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Calliostoma comprenaient en 2011 :
 Calliostoma aculeatum G.B. Sowerby III, 1912
 Calliostoma adelae Schwengel, 1951
 Calliostoma admirandum E.A. Smith, 1906
@@ -917,7 +943,7 @@
 Calliostoma nordenskjoldi Strebel, 1908
 Calliostoma normani (Dautzenberg &amp; H. Fischer, 1897)
 Calliostoma nudiusculum (Martens, 1881)
-† Calliostoma nodulosum Solander, 1766 [12]
+† Calliostoma nodulosum Solander, 1766 
 Calliostoma nudum (Philippi, 1845)
 Calliostoma obesulum (Locard, 1898)
 Calliostoma occidentale (Mighels &amp; C. B. Adams, 1842)
@@ -1034,7 +1060,7 @@
 Calliostoma yucatecanum Dall, 1881
 Calliostoma zietzi Verco, 1905
 Calliostoma zizyphinum (Linnaeus, 1758)
-Espèces devenues synonymes[11]
+Espèces devenues synonymes
 Calliostoma adamsi Brazier, 1895: synonyme de Calliostoma comptum A. Adams, 1855
 Calliostoma adamsi Pilsbry, 1889: synonyme de Astele subcarinata Swainson, 1855
 Calliostoma affinis Dall, 1872: synonyme de Calliostoma unicum (Dunker, 1860)
